--- a/cadastro/cadastro.xlsx
+++ b/cadastro/cadastro.xlsx
@@ -3166,7 +3166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3346,12 +3346,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3513,14 +3507,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3865,8 +3853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D184" sqref="D184"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152:XFD152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3880,26 +3868,26 @@
     <col min="7" max="7" width="80.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8965,5 +8953,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>